--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/avg_classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.06812401466009825</t>
+          <t>0.06299551458842</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.08247712312798793</t>
+          <t>0.05177768241353431</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9116713947371518</t>
+          <t>0.9599856978345308</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.06922516774643417</t>
+          <t>0.06539193208937237</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.07707412465154069</t>
+          <t>0.05959137913363234</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.922860916146294</t>
+          <t>0.9473404571396604</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>43</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.0720800095188072</t>
+          <t>0.06283983126097245</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0802186275088505</t>
+          <t>0.0694596904573526</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9164497982271296</t>
+          <t>0.9284634809300553</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.0666286804570688</t>
+          <t>0.06569338253350683</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0769292174831562</t>
+          <t>0.05390273725855973</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.923161358430638</t>
+          <t>0.9569014582386844</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>29</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/avg_classes.xlsx
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.06299551458842</t>
+          <t>0.0609620922024863</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.05177768241353431</t>
+          <t>0.0351276875056667</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9599856978345308</t>
+          <t>0.9817229306572706</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.06539193208937237</t>
+          <t>0.06407048895718997</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.05959137913363234</t>
+          <t>0.05298650512111957</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9473404571396604</t>
+          <t>0.958306373637564</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.06283983126097245</t>
+          <t>0.0656603977897534</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0694596904573526</t>
+          <t>0.05872798808498908</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9284634809300553</t>
+          <t>0.948829420366232</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.06569338253350683</t>
+          <t>0.06342587053483276</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.05390273725855973</t>
+          <t>0.06863570118285497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9569014582386844</t>
+          <t>0.930123645730907</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>5</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/avg_classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.0609620922024863</t>
+          <t>0.05907938225038512</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0351276875056667</t>
+          <t>0.05480661859183807</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9817229306572706</t>
+          <t>0.9279957825917903</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>71</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.06407048895718997</t>
+          <t>0.06100062008985018</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.05298650512111957</t>
+          <t>0.06369657287458419</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.958306373637564</t>
+          <t>0.9027005693046323</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.0656603977897534</t>
+          <t>0.05641030680891766</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.05872798808498908</t>
+          <t>0.049462457696326366</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.948829420366232</t>
+          <t>0.9412406700906989</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.06342587053483276</t>
+          <t>0.057293642954645924</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.06863570118285497</t>
+          <t>0.061344701726651456</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.930123645730907</t>
+          <t>0.9098764505738768</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/avg_classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="result0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.06299551458842</t>
+          <t>0.07025201527408814</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.05177768241353431</t>
+          <t>0.07728993364664188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9599856978345308</t>
+          <t>0.8800815385159813</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.06539193208937237</t>
+          <t>0.07123363509888143</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.05959137913363234</t>
+          <t>0.06027671322802732</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9473404571396604</t>
+          <t>0.9266553105933348</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.06283983126097245</t>
+          <t>0.07260408251466662</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0694596904573526</t>
+          <t>0.07434235126869529</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.9284634809300553</t>
+          <t>0.8892056950884246</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>33</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.06569338253350683</t>
+          <t>0.07135402666967386</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.05390273725855973</t>
+          <t>0.09163434099811833</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9569014582386844</t>
+          <t>0.8315759634714895</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>15</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/avg_classes.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/SVR/avg_classes.xlsx
@@ -465,88 +465,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.07025201527408814</t>
+          <t>0.07057531192702196</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.07728993364664188</t>
+          <t>0.09026961899106747</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8800815385159813</t>
+          <t>0.8364697762987577</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.07123363509888143</t>
+          <t>0.0700627261428033</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.06027671322802732</t>
+          <t>0.06881965615919532</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9266553105933348</t>
+          <t>0.9046977437682557</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.07260408251466662</t>
+          <t>0.07229884629628235</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.07434235126869529</t>
+          <t>0.07732285361070576</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8892056950884246</t>
+          <t>0.8802242484418601</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.07135402666967386</t>
+          <t>0.0720363029006693</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.09163434099811833</t>
+          <t>0.06110930597501834</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8315759634714895</t>
+          <t>0.9244401780766031</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
     </row>
